--- a/va_facility_data_2025-02-20/Rock Hill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rock%20Hill%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rock Hill VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rock%20Hill%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2aa56fb204944bc1967e1abe5b7bb7ff"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R86ae75f3c6974b51aa93caedc8729864"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R184b13ea47cf47ed906fd3895f6ec3fa"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfde89f5ccebb4db8b2293f6d18ce4429"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4dd840e79a724917959e0f038cb23561"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rea079c0adac54123b9d73d3a4c1a06ec"/>
   </x:sheets>
 </x:workbook>
 </file>
